--- a/doc/02_画面遷移図_ドキドキワクワク（仮）.xlsx
+++ b/doc/02_画面遷移図_ドキドキワクワク（仮）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\6月　授業資料\6月配布物\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69FEDE4A-1EF5-432E-86A0-BE793E8C6228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF27FD63-AA0D-4231-A567-9C5480A8D65D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="1710" windowWidth="19815" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
@@ -803,15 +803,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1202531</xdr:colOff>
+      <xdr:colOff>1251857</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1276350</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -826,8 +826,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4464844" y="2719388"/>
-          <a:ext cx="73819" cy="4305299"/>
+          <a:off x="4517571" y="2872468"/>
+          <a:ext cx="24493" cy="6067425"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -925,13 +925,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1285875</xdr:colOff>
+      <xdr:colOff>1299482</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>154782</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:colOff>413657</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>164307</xdr:rowOff>
     </xdr:to>
@@ -948,7 +948,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4548188" y="4250532"/>
+          <a:off x="4565196" y="4495461"/>
           <a:ext cx="542925" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1037,9 +1037,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1212056</xdr:colOff>
+      <xdr:colOff>1251857</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>40481</xdr:rowOff>
+      <xdr:rowOff>40822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
@@ -1060,8 +1060,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4474369" y="6969919"/>
-          <a:ext cx="542925" cy="9525"/>
+          <a:off x="4517571" y="7388679"/>
+          <a:ext cx="503124" cy="9184"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1093,15 +1093,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>140494</xdr:rowOff>
+      <xdr:colOff>413657</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:colOff>537482</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>35719</xdr:rowOff>
+      <xdr:rowOff>35720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1116,8 +1116,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5091113" y="4069557"/>
-          <a:ext cx="1504950" cy="395287"/>
+          <a:off x="5108121" y="4095750"/>
+          <a:ext cx="1484540" cy="634434"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1140,6 +1140,14 @@
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>コーディネート</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
@@ -1276,13 +1284,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:colOff>537482</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>154782</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:colOff>394607</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>164307</xdr:rowOff>
     </xdr:to>
@@ -1299,8 +1307,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6596063" y="4250532"/>
-          <a:ext cx="547687" cy="9525"/>
+          <a:off x="6592661" y="4495461"/>
+          <a:ext cx="537482" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1332,13 +1340,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:colOff>366032</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>154782</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:colOff>185057</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>26195</xdr:rowOff>
     </xdr:to>
@@ -1355,8 +1363,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7115175" y="4083845"/>
-          <a:ext cx="1890713" cy="371475"/>
+          <a:off x="7101568" y="4318568"/>
+          <a:ext cx="1860096" cy="402091"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1393,15 +1401,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>35719</xdr:rowOff>
+      <xdr:colOff>213632</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>158182</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>45244</xdr:rowOff>
+      <xdr:colOff>70757</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>167707</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1416,8 +1424,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9034463" y="4298157"/>
-          <a:ext cx="547687" cy="9525"/>
+          <a:off x="8990239" y="4498861"/>
+          <a:ext cx="537482" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1449,15 +1457,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>7145</xdr:rowOff>
+      <xdr:colOff>61232</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>129609</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>369094</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>45245</xdr:rowOff>
+      <xdr:colOff>382701</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>167709</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1472,8 +1480,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9572625" y="4102895"/>
-          <a:ext cx="1702594" cy="371475"/>
+          <a:off x="9518196" y="4293395"/>
+          <a:ext cx="1682184" cy="391885"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1917,11 +1925,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1333499</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>154781</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1266826" cy="275717"/>
+      <xdr:colOff>1428748</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>141175</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1266826" cy="459100"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="53" name="テキスト ボックス 52">
@@ -1935,8 +1943,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4595812" y="3750469"/>
-          <a:ext cx="1266826" cy="275717"/>
+          <a:off x="4694462" y="3597389"/>
+          <a:ext cx="1266826" cy="459100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1962,6 +1970,13 @@
           <a:spAutoFit/>
         </a:bodyPr>
         <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>コーディネート</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -2091,7 +2106,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>13607</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>154781</xdr:rowOff>
     </xdr:from>
@@ -2109,7 +2124,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6762750" y="3750469"/>
+          <a:off x="6749143" y="3964781"/>
           <a:ext cx="1914525" cy="275717"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2149,9 +2164,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>7144</xdr:rowOff>
+      <xdr:colOff>223157</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>129608</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1914525" cy="275717"/>
     <xdr:sp macro="" textlink="">
@@ -2167,7 +2182,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9043988" y="3769519"/>
+          <a:off x="8999764" y="3939608"/>
           <a:ext cx="1914525" cy="275717"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2889,13 +2904,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>607219</xdr:colOff>
+      <xdr:colOff>620826</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>614365</xdr:colOff>
+      <xdr:colOff>627972</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
@@ -2912,8 +2927,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7369969" y="4457699"/>
-          <a:ext cx="7146" cy="280988"/>
+          <a:off x="7356362" y="4723038"/>
+          <a:ext cx="7146" cy="291193"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2945,13 +2960,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>321469</xdr:colOff>
+      <xdr:colOff>335076</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>16669</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
+      <xdr:colOff>346981</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>130968</xdr:rowOff>
     </xdr:to>
@@ -2968,8 +2983,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="6393657" y="4445794"/>
-          <a:ext cx="11905" cy="280987"/>
+          <a:off x="6390255" y="4711133"/>
+          <a:ext cx="11905" cy="291192"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3001,13 +3016,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>323851</xdr:colOff>
+      <xdr:colOff>337458</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:colOff>585107</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>154781</xdr:rowOff>
     </xdr:to>
@@ -3024,8 +3039,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6396039" y="4714875"/>
-          <a:ext cx="938211" cy="35719"/>
+          <a:off x="6392637" y="4990419"/>
+          <a:ext cx="928006" cy="35719"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3057,7 +3072,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>80961</xdr:colOff>
+      <xdr:colOff>94568</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>30956</xdr:rowOff>
     </xdr:from>
@@ -3075,7 +3090,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6153149" y="4793456"/>
+          <a:off x="6149747" y="5079206"/>
           <a:ext cx="1645443" cy="275717"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3115,15 +3130,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>-1</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>13606</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>151039</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>7145</xdr:colOff>
+      <xdr:colOff>20752</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>83344</xdr:rowOff>
+      <xdr:rowOff>28915</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3138,8 +3153,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8834437" y="4457700"/>
-          <a:ext cx="7146" cy="388144"/>
+          <a:off x="8790213" y="4668610"/>
+          <a:ext cx="7146" cy="408555"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3171,15 +3186,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>52388</xdr:rowOff>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>174852</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
+      <xdr:colOff>108858</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>83344</xdr:rowOff>
+      <xdr:rowOff>28915</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3194,8 +3209,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8239125" y="4481513"/>
-          <a:ext cx="1" cy="364331"/>
+          <a:off x="8205107" y="4692423"/>
+          <a:ext cx="1" cy="384742"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3283,9 +3298,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>461963</xdr:colOff>
+      <xdr:colOff>475570</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>90489</xdr:rowOff>
+      <xdr:rowOff>36060</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1526379" cy="459100"/>
     <xdr:sp macro="" textlink="">
@@ -3301,7 +3316,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7915276" y="4852989"/>
+          <a:off x="7891463" y="5084310"/>
           <a:ext cx="1526379" cy="459100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3348,15 +3363,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>271462</xdr:colOff>
+      <xdr:colOff>285069</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>61913</xdr:rowOff>
+      <xdr:rowOff>7484</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>278608</xdr:colOff>
+      <xdr:colOff>292215</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>116682</xdr:rowOff>
+      <xdr:rowOff>62253</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3371,8 +3386,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="11177587" y="4491038"/>
-          <a:ext cx="7146" cy="388144"/>
+          <a:off x="11102748" y="4701948"/>
+          <a:ext cx="7146" cy="408555"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3404,15 +3419,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>366712</xdr:colOff>
+      <xdr:colOff>380319</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:rowOff>31297</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>366713</xdr:colOff>
+      <xdr:colOff>380320</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>116682</xdr:rowOff>
+      <xdr:rowOff>62253</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3427,8 +3442,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10582275" y="4514851"/>
-          <a:ext cx="1" cy="364331"/>
+          <a:off x="10517640" y="4725761"/>
+          <a:ext cx="1" cy="384742"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3460,15 +3475,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>378619</xdr:colOff>
+      <xdr:colOff>392226</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>116681</xdr:rowOff>
+      <xdr:rowOff>62252</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>259557</xdr:colOff>
+      <xdr:colOff>273164</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:rowOff>74158</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3483,8 +3498,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="10594182" y="4879181"/>
-          <a:ext cx="571500" cy="11906"/>
+          <a:off x="10529547" y="5110502"/>
+          <a:ext cx="561296" cy="11906"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3516,9 +3531,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>126207</xdr:colOff>
+      <xdr:colOff>139814</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>159544</xdr:rowOff>
+      <xdr:rowOff>105115</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1526379" cy="275717"/>
     <xdr:sp macro="" textlink="">
@@ -3534,7 +3549,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10341770" y="4922044"/>
+          <a:off x="10277135" y="5153365"/>
           <a:ext cx="1526379" cy="275717"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3574,15 +3589,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>392906</xdr:colOff>
+      <xdr:colOff>406513</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>83344</xdr:rowOff>
+      <xdr:rowOff>28915</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>442913</xdr:colOff>
+      <xdr:colOff>456520</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:rowOff>88445</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3597,8 +3612,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="9917906" y="4512469"/>
-          <a:ext cx="50007" cy="892968"/>
+          <a:off x="9863477" y="4723379"/>
+          <a:ext cx="50007" cy="943995"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3630,13 +3645,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>214312</xdr:colOff>
+      <xdr:colOff>227919</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>23814</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>233363</xdr:colOff>
+      <xdr:colOff>246970</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
@@ -3653,8 +3668,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5595937" y="4452939"/>
-          <a:ext cx="19051" cy="904873"/>
+          <a:off x="5602740" y="4718278"/>
+          <a:ext cx="19051" cy="955900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3686,13 +3701,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>226221</xdr:colOff>
+      <xdr:colOff>239828</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>92868</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>416719</xdr:colOff>
+      <xdr:colOff>430326</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>107156</xdr:rowOff>
     </xdr:to>
@@ -3709,8 +3724,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="5607846" y="5355431"/>
-          <a:ext cx="4333873" cy="14288"/>
+          <a:off x="5614649" y="5671797"/>
+          <a:ext cx="4272641" cy="14288"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3742,7 +3757,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>52388</xdr:colOff>
+      <xdr:colOff>65995</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>14288</xdr:rowOff>
     </xdr:from>
@@ -3760,7 +3775,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7505701" y="5443538"/>
+          <a:off x="7481888" y="5770109"/>
           <a:ext cx="1526379" cy="275717"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4235,6 +4250,823 @@
         <a:xfrm flipV="1">
           <a:off x="7565572" y="7239000"/>
           <a:ext cx="0" cy="353786"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1274989</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>62254</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>389164</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>71779</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="直線矢印コネクタ 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEB88821-618D-4C82-8ADB-BED00BEBC22C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4540703" y="8825254"/>
+          <a:ext cx="542925" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>389164</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>512989</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>120083</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCCC83BD-DB2F-4EED-9B8E-CE87769A647C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5083628" y="8422821"/>
+          <a:ext cx="1484540" cy="637155"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>アイテム</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>検索一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>512989</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>62254</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>370114</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>71779</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="直線矢印コネクタ 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3593E2EA-4A5D-4CB2-AB87-5536D9FCA57D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6568168" y="8825254"/>
+          <a:ext cx="537482" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>341539</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>62254</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>160564</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>110559</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB97466C-4CE7-405E-B164-2AE425405043}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7077075" y="8648361"/>
+          <a:ext cx="1860096" cy="402091"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>アイテム詳細</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1377042</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>103074</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1266826" cy="459100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="テキスト ボックス 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58DC889A-E2A6-4633-ACF4-8293FBE75847}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4642756" y="7981610"/>
+          <a:ext cx="1266826" cy="459100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>アイテム</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>検索一覧　押下時</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>478971</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>48646</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1914525" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="テキスト ボックス 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5DAE50A-24B4-4F42-9FAA-E5703B1CBAD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6534150" y="8280967"/>
+          <a:ext cx="1914525" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>アイテム画像　押下時</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>596333</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>112938</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>603479</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>50345</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="直線矢印コネクタ 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D81B742-FD13-43DE-BAD2-4FDA0E5FC80F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7331869" y="9052831"/>
+          <a:ext cx="7146" cy="291193"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>310583</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>101033</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>322488</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>38439</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="94" name="直線矢印コネクタ 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE32E7D6-A305-4C3F-B82F-3990CC43DFCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6365762" y="9040926"/>
+          <a:ext cx="11905" cy="291192"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>312965</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>26533</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>560614</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>62252</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="直線矢印コネクタ 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B1140A5-EB5B-4E63-B16C-EFAE498C65D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6368144" y="9320212"/>
+          <a:ext cx="928006" cy="35719"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>70075</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>115320</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1645443" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="テキスト ボックス 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A03D1B73-DBA3-43AF-B01C-87B85FC051C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6125254" y="9408999"/>
+          <a:ext cx="1645443" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>アイテム削除時</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>669470</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>58510</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>676616</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>113279</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="97" name="直線矢印コネクタ 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01238221-599D-4E2C-BE3A-694085114CDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8765720" y="8998403"/>
+          <a:ext cx="7146" cy="408555"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>84364</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>82323</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>84365</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>113279</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="102" name="直線矢印コネクタ 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E258E15-60BE-453E-A8D2-BC8A0CAD1AD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8180614" y="9022216"/>
+          <a:ext cx="1" cy="384742"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>451077</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>120424</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1526379" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="テキスト ボックス 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A963EB2-D65C-4A4C-B8C4-382ED5A76D32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7866970" y="9414103"/>
+          <a:ext cx="1526379" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>アイテム情報　変更時</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>34017</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>679337</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="128" name="直線矢印コネクタ 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1B10B38-8A37-40C9-974E-08D63FBCD287}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8123464" y="9327696"/>
+          <a:ext cx="652123" cy="20411"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4936,8 +5768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/doc/02_画面遷移図_ドキドキワクワク（仮）.xlsx
+++ b/doc/02_画面遷移図_ドキドキワクワク（仮）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOJO6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF27FD63-AA0D-4231-A567-9C5480A8D65D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4978034C-4541-4BE7-BACE-E60524560B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
@@ -337,23 +337,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>92869</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>122464</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47057CE6-BA6A-4F35-8B91-B5206486A08A}"/>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96CACB84-D9CD-4BF7-AE41-7F15EEDAA6E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -361,124 +361,10 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="4724400"/>
-          <a:ext cx="1352550" cy="0"/>
+          <a:off x="1127012" y="2060120"/>
+          <a:ext cx="29595" cy="2430237"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>981075</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="カギ線コネクタ 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90C08D54-577D-4ED4-A419-1273C2A28683}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="666750" y="4486275"/>
-          <a:ext cx="1343025" cy="114300"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1066800</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="カギ線コネクタ 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6BCA08A-8553-4980-8C06-733901F1CD40}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1181100" y="4410075"/>
-          <a:ext cx="914400" cy="114300"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="38100">
@@ -508,71 +394,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>92869</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>11906</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96CACB84-D9CD-4BF7-AE41-7F15EEDAA6E5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1116807" y="1947862"/>
-          <a:ext cx="2380" cy="826294"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>130968</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>185397</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>110218</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>130968</xdr:rowOff>
+      <xdr:colOff>578304</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>117361</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -587,8 +417,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1154906" y="2719388"/>
-          <a:ext cx="1512094" cy="7143"/>
+          <a:off x="1219540" y="4450897"/>
+          <a:ext cx="1508693" cy="7143"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -686,15 +516,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>586467</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>107496</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>938893</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>174172</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -709,8 +539,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2647950" y="2562225"/>
-          <a:ext cx="1495425" cy="409575"/>
+          <a:off x="2736396" y="4271282"/>
+          <a:ext cx="1468211" cy="420461"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -747,15 +577,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>923925</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>951139</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>153760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>100013</xdr:rowOff>
+      <xdr:colOff>408214</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>168048</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -770,7 +600,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4181475" y="2752725"/>
+          <a:off x="4216853" y="4494439"/>
           <a:ext cx="885825" cy="14288"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -804,12 +634,12 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1251857</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1276350</xdr:colOff>
+      <xdr:colOff>1292679</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -826,130 +656,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4517571" y="2872468"/>
-          <a:ext cx="24493" cy="6067425"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="角丸四角形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B73ACE2-369F-4747-97F3-294E4796F4CF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5057775" y="2581275"/>
-          <a:ext cx="1495425" cy="409575"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>新規登録</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>2</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1299482</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>154782</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>413657</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>164307</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="直線矢印コネクタ 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94F2A608-B043-411B-A2EC-E3128F68EBC7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4565196" y="4495461"/>
-          <a:ext cx="542925" cy="9525"/>
+          <a:off x="4517571" y="4544786"/>
+          <a:ext cx="40822" cy="4395107"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1809,9 +1517,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>423861</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>130969</xdr:rowOff>
+      <xdr:colOff>315004</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>8504</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1266826" cy="275717"/>
     <xdr:sp macro="" textlink="">
@@ -1827,7 +1535,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1447799" y="2393157"/>
+          <a:off x="1349147" y="3818504"/>
           <a:ext cx="1266826" cy="275717"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1858,64 +1566,6 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>ログイン成功時</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>933449</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1266826" cy="275717"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="テキスト ボックス 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{532133F9-204C-49E8-BF21-7F1D6F8E20AC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4190999" y="2362200"/>
-          <a:ext cx="1266826" cy="275717"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>新規登録押下時</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2675,232 +2325,6 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="79" name="直線矢印コネクタ 78">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3144FF69-D6F8-453F-86BF-BD5B864DCFCF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6553200" y="2990850"/>
-          <a:ext cx="1095375" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="80" name="直線矢印コネクタ 79">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F18BC0D2-4418-47BB-B896-FAA923906353}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7620000" y="2657475"/>
-          <a:ext cx="0" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="81" name="直線矢印コネクタ 80">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{200B5D44-B057-4ABF-9014-257E12972944}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="6572250" y="2647950"/>
-          <a:ext cx="1047750" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1562101" cy="275717"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="82" name="テキスト ボックス 81">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92CA6C08-6BE5-4764-AC13-F318804A153C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7619999" y="2657475"/>
-          <a:ext cx="1562101" cy="275717"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>警告　ログイン失敗時</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -5768,8 +5192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/doc/02_画面遷移図_ドキドキワクワク（仮）.xlsx
+++ b/doc/02_画面遷移図_ドキドキワクワク（仮）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOJO6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4978034C-4541-4BE7-BACE-E60524560B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD06C28-54CD-44BB-95A4-5163EE3A22CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4519,6 +4519,76 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>176893</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3701143" cy="2493247"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{719745B6-20E2-A86F-6571-7E806D8FAAE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10314214" y="7688035"/>
+          <a:ext cx="3701143" cy="2493247"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600"/>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600"/>
+            <a:t>各画面ロゴ押下時ホーム画面に遷移</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600"/>
+            <a:t>（新規登録以外）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5192,8 +5262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/doc/02_画面遷移図_ドキドキワクワク（仮）.xlsx
+++ b/doc/02_画面遷移図_ドキドキワクワク（仮）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOJO6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD06C28-54CD-44BB-95A4-5163EE3A22CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04D7839-D557-49CA-829A-0905566A0EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5262,7 +5262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>

--- a/doc/02_画面遷移図_ドキドキワクワク（仮）.xlsx
+++ b/doc/02_画面遷移図_ドキドキワクワク（仮）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOJO6\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04D7839-D557-49CA-829A-0905566A0EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311502FF-DFFB-4C65-B508-65A833A49AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
@@ -1225,16 +1225,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>752477</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>126206</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>771527</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>11906</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>493941</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>512991</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>147979</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1249,8 +1249,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="752477" y="1888331"/>
-          <a:ext cx="19050" cy="885825"/>
+          <a:off x="9270548" y="1418886"/>
+          <a:ext cx="19050" cy="947057"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1281,16 +1281,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>150020</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>150019</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>169070</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>21431</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>40822</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>81984</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>60213</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1305,8 +1305,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="150020" y="1912144"/>
-          <a:ext cx="19050" cy="871537"/>
+          <a:off x="8817429" y="1415484"/>
+          <a:ext cx="19391" cy="870516"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1337,16 +1337,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>159545</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>159543</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>735808</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>2381</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>663009</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>64295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>558915</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>84026</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1361,8 +1361,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="159545" y="2755106"/>
-          <a:ext cx="576263" cy="9525"/>
+          <a:off x="8759259" y="2282259"/>
+          <a:ext cx="576263" cy="19731"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1393,10 +1393,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>119064</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>540885</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>16329</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1154906" cy="459100"/>
     <xdr:sp macro="" textlink="">
@@ -1412,7 +1412,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="119064" y="2819400"/>
+          <a:off x="8637135" y="2411186"/>
           <a:ext cx="1154906" cy="459100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1872,15 +1872,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>842963</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>998764</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
+      <xdr:colOff>998764</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>110218</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1894,9 +1894,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="842963" y="1190625"/>
-          <a:ext cx="33337" cy="409575"/>
+        <a:xfrm>
+          <a:off x="998764" y="1333500"/>
+          <a:ext cx="0" cy="287111"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1985,16 +1985,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>522514</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:rowOff>92529</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>251731</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>92529</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2009,8 +2009,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4324350" y="1943100"/>
-          <a:ext cx="1095375" cy="0"/>
+          <a:off x="10659835" y="1956708"/>
+          <a:ext cx="1089932" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2041,16 +2041,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>223156</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:rowOff>102054</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>223156</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>102054</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2065,8 +2065,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5391150" y="1609725"/>
-          <a:ext cx="0" cy="342900"/>
+          <a:off x="11721192" y="1612447"/>
+          <a:ext cx="0" cy="353786"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2097,16 +2097,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>541564</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:rowOff>92529</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>223156</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>102054</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2121,8 +2121,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="4343400" y="1600200"/>
-          <a:ext cx="1047750" cy="9525"/>
+          <a:off x="10678885" y="1602922"/>
+          <a:ext cx="1042307" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2153,10 +2153,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>223155</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>102054</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1562101" cy="275717"/>
     <xdr:sp macro="" textlink="">
@@ -2172,7 +2172,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5391149" y="1609725"/>
+          <a:off x="11721191" y="1612447"/>
           <a:ext cx="1562101" cy="275717"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2212,15 +2212,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>871538</xdr:colOff>
+      <xdr:colOff>966107</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>163286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>128334</xdr:rowOff>
+      <xdr:colOff>359907</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2231,14 +2231,12 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="62" idx="1"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="871538" y="1209675"/>
-          <a:ext cx="2719386" cy="42609"/>
+          <a:off x="966107" y="1319893"/>
+          <a:ext cx="2659514" cy="13607"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2442,11 +2440,11 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>337458</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>585107</xdr:colOff>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>154781</xdr:rowOff>
     </xdr:to>
@@ -2463,8 +2461,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6392637" y="4990419"/>
-          <a:ext cx="928006" cy="35719"/>
+          <a:off x="6392637" y="5026138"/>
+          <a:ext cx="1023256" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2722,9 +2720,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>475570</xdr:colOff>
+      <xdr:colOff>625248</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>36060</xdr:rowOff>
+      <xdr:rowOff>158524</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1526379" cy="459100"/>
     <xdr:sp macro="" textlink="">
@@ -2740,7 +2738,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7891463" y="5084310"/>
+          <a:off x="8041141" y="5206774"/>
           <a:ext cx="1526379" cy="459100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3013,15 +3011,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>406513</xdr:colOff>
+      <xdr:colOff>456520</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>28915</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>456520</xdr:colOff>
+      <xdr:colOff>462643</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>88445</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3035,9 +3033,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="9863477" y="4723379"/>
-          <a:ext cx="50007" cy="943995"/>
+        <a:xfrm>
+          <a:off x="9913484" y="4723379"/>
+          <a:ext cx="6123" cy="950800"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3068,14 +3066,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>227919</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>350383</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>23814</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>246970</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>369434</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
@@ -3092,7 +3090,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5602740" y="4718278"/>
+          <a:off x="7766276" y="4718278"/>
           <a:ext cx="19051" cy="955900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3124,16 +3122,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>239828</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>312964</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>92868</xdr:rowOff>
+      <xdr:rowOff>122464</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>430326</xdr:colOff>
+      <xdr:colOff>462643</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>107156</xdr:rowOff>
+      <xdr:rowOff>122464</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3147,9 +3145,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5614649" y="5671797"/>
-          <a:ext cx="4272641" cy="14288"/>
+        <a:xfrm flipH="1">
+          <a:off x="7728857" y="5701393"/>
+          <a:ext cx="2190750" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3180,10 +3178,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>65995</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>14288</xdr:rowOff>
+      <xdr:rowOff>27895</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1526379" cy="275717"/>
     <xdr:sp macro="" textlink="">
@@ -3199,7 +3197,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7481888" y="5770109"/>
+          <a:off x="8162245" y="5783716"/>
           <a:ext cx="1526379" cy="275717"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5263,7 +5261,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/doc/02_画面遷移図_ドキドキワクワク（仮）.xlsx
+++ b/doc/02_画面遷移図_ドキドキワクワク（仮）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOJO6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04D7839-D557-49CA-829A-0905566A0EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F93800-3F95-45E3-90A3-03BFCE9902E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -633,15 +633,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1251857</xdr:colOff>
+      <xdr:colOff>1279071</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>27215</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1292679</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1279072</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -656,8 +656,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4517571" y="4544786"/>
-          <a:ext cx="40822" cy="4395107"/>
+          <a:off x="4544785" y="4544786"/>
+          <a:ext cx="1" cy="4303938"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -991,16 +991,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>537482</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>360591</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>154782</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>394607</xdr:colOff>
+      <xdr:rowOff>73139</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>27215</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>164307</xdr:rowOff>
+      <xdr:rowOff>81642</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1015,8 +1015,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6592661" y="4495461"/>
-          <a:ext cx="537482" cy="9525"/>
+          <a:off x="9137198" y="4413818"/>
+          <a:ext cx="1027338" cy="8503"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1047,16 +1047,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>366032</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>39461</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>154782</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>185057</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>26195</xdr:rowOff>
+      <xdr:rowOff>100354</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>538842</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>148660</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1071,7 +1071,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7101568" y="4318568"/>
+          <a:off x="10176782" y="4264140"/>
           <a:ext cx="1860096" cy="402091"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1108,16 +1108,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>213632</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>526597</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>158182</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>70757</xdr:colOff>
+      <xdr:rowOff>90146</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>383722</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>167707</xdr:rowOff>
+      <xdr:rowOff>99671</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1132,7 +1132,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8990239" y="4498861"/>
+          <a:off x="12024633" y="4430825"/>
           <a:ext cx="537482" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1164,16 +1164,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>61232</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>415019</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>129609</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>382701</xdr:colOff>
+      <xdr:rowOff>102395</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>56132</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>167709</xdr:rowOff>
+      <xdr:rowOff>140495</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1188,7 +1188,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9518196" y="4293395"/>
+          <a:off x="12593412" y="4266181"/>
           <a:ext cx="1682184" cy="391885"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1755,10 +1755,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>13607</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>154781</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>27216</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>100352</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1914525" cy="275717"/>
     <xdr:sp macro="" textlink="">
@@ -1774,7 +1774,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6749143" y="3964781"/>
+          <a:off x="8803823" y="3733459"/>
           <a:ext cx="1914525" cy="275717"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1813,10 +1813,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>223157</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>129608</xdr:rowOff>
+      <xdr:rowOff>88787</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1914525" cy="275717"/>
     <xdr:sp macro="" textlink="">
@@ -1832,7 +1832,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8999764" y="3939608"/>
+          <a:off x="11612336" y="3898787"/>
           <a:ext cx="1914525" cy="275717"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2327,16 +2327,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>620826</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>525576</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>627972</xdr:colOff>
+      <xdr:rowOff>1360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>532722</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:rowOff>115660</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2351,7 +2351,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7356362" y="4723038"/>
+          <a:off x="12703969" y="4695824"/>
           <a:ext cx="7146" cy="291193"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2383,16 +2383,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>335076</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>16669</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>346981</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>253435</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>265340</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>130968</xdr:rowOff>
+      <xdr:rowOff>90146</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2407,7 +2407,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="6390255" y="4711133"/>
+          <a:off x="11751471" y="4670311"/>
           <a:ext cx="11905" cy="291192"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2439,16 +2439,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>337458</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>269423</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>585107</xdr:colOff>
+      <xdr:rowOff>105454</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>517072</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>154781</xdr:rowOff>
+      <xdr:rowOff>141173</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2463,7 +2463,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6392637" y="4990419"/>
+          <a:off x="11767459" y="4976811"/>
           <a:ext cx="928006" cy="35719"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2495,10 +2495,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>94568</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>30956</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285067</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>139813</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1645443" cy="275717"/>
     <xdr:sp macro="" textlink="">
@@ -2514,7 +2514,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6149747" y="5079206"/>
+          <a:off x="7700960" y="5364956"/>
           <a:ext cx="1645443" cy="275717"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2553,16 +2553,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>13606</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>612321</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>151039</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>20752</xdr:colOff>
+      <xdr:rowOff>164646</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>619467</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>28915</xdr:rowOff>
+      <xdr:rowOff>42522</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2577,7 +2577,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8790213" y="4668610"/>
+          <a:off x="11430000" y="4682217"/>
           <a:ext cx="7146" cy="408555"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2609,16 +2609,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>108857</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>40821</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>174852</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>108858</xdr:colOff>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>40822</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>28915</xdr:rowOff>
+      <xdr:rowOff>1701</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2633,7 +2633,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8205107" y="4692423"/>
+          <a:off x="10858500" y="4665209"/>
           <a:ext cx="1" cy="384742"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2665,16 +2665,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>83344</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>396308</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>59531</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>654844</xdr:colOff>
+      <xdr:rowOff>18709</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>287451</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:rowOff>30615</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2689,7 +2689,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8227219" y="4822031"/>
+          <a:off x="13255058" y="5066959"/>
           <a:ext cx="571500" cy="11906"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2721,10 +2721,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>475570</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>475572</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>36060</xdr:rowOff>
+      <xdr:rowOff>8846</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1526379" cy="459100"/>
     <xdr:sp macro="" textlink="">
@@ -2740,7 +2740,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7891463" y="5084310"/>
+          <a:off x="10612893" y="5057096"/>
           <a:ext cx="1526379" cy="459100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2786,16 +2786,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>285069</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>7484</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>292215</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>312285</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>143556</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>319431</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>62253</xdr:rowOff>
+      <xdr:rowOff>21432</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2810,7 +2810,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="11102748" y="4701948"/>
+          <a:off x="13851392" y="4661127"/>
           <a:ext cx="7146" cy="408555"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2842,16 +2842,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>380319</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>31297</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>380320</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>167368</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>380321</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>62253</xdr:rowOff>
+      <xdr:rowOff>21431</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2866,7 +2866,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10517640" y="4725761"/>
+          <a:off x="13239070" y="4684939"/>
           <a:ext cx="1" cy="384742"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2898,16 +2898,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>392226</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>52047</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>613343</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>62252</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>273164</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>74158</xdr:rowOff>
+      <xdr:rowOff>6123</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2922,7 +2922,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="10529547" y="5110502"/>
+          <a:off x="10869726" y="5042467"/>
           <a:ext cx="561296" cy="11906"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2954,10 +2954,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>139814</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>105115</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>411957</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>91508</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1526379" cy="275717"/>
     <xdr:sp macro="" textlink="">
@@ -2973,7 +2973,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10277135" y="5153365"/>
+          <a:off x="13951064" y="4785972"/>
           <a:ext cx="1526379" cy="275717"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3012,16 +3012,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>406513</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>28915</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>456520</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>231322</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>137772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238806</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>88445</xdr:rowOff>
+      <xdr:rowOff>149678</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3036,8 +3036,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="9863477" y="4723379"/>
-          <a:ext cx="50007" cy="943995"/>
+          <a:off x="10368643" y="4655343"/>
+          <a:ext cx="7484" cy="1073264"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3130,10 +3130,10 @@
       <xdr:rowOff>92868</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>430326</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>149679</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>107156</xdr:rowOff>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3149,7 +3149,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
           <a:off x="5614649" y="5671797"/>
-          <a:ext cx="4272641" cy="14288"/>
+          <a:ext cx="4672351" cy="15989"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3180,12 +3180,12 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>65995</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>14288</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1526379" cy="275717"/>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>474209</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>41501</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1526379" cy="459100"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="116" name="テキスト ボックス 115">
@@ -3199,8 +3199,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7481888" y="5770109"/>
-          <a:ext cx="1526379" cy="275717"/>
+          <a:off x="11972245" y="5089751"/>
+          <a:ext cx="1526379" cy="459100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3229,7 +3229,14 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>アイテム　削除時</a:t>
+            <a:t>アイテム</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>削除時</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3831,14 +3838,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>512989</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>130290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>62254</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>370114</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>71779</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3853,8 +3860,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6568168" y="8825254"/>
-          <a:ext cx="537482" cy="9525"/>
+          <a:off x="6568168" y="8716397"/>
+          <a:ext cx="738868" cy="46603"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3885,16 +3892,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>341539</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>62254</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>160564</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>110559</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>116682</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>164987</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3909,7 +3916,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7077075" y="8648361"/>
+          <a:off x="10057039" y="8525896"/>
           <a:ext cx="1860096" cy="402091"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -4011,10 +4018,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>478971</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>48646</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>397329</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>171110</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1914525" cy="275717"/>
     <xdr:sp macro="" textlink="">
@@ -4030,7 +4037,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6534150" y="8280967"/>
+          <a:off x="9173936" y="8226539"/>
           <a:ext cx="1914525" cy="275717"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4069,16 +4076,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>596333</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>149679</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>112938</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>603479</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>50345</xdr:rowOff>
+      <xdr:rowOff>17688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>168051</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4093,8 +4100,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7331869" y="9052831"/>
-          <a:ext cx="7146" cy="291193"/>
+          <a:off x="10287000" y="8957581"/>
+          <a:ext cx="18372" cy="540205"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4125,16 +4132,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>310583</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>487476</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101033</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>322488</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>38439</xdr:rowOff>
+      <xdr:rowOff>101032</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>517071</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4149,8 +4156,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="6365762" y="9040926"/>
-          <a:ext cx="11905" cy="291192"/>
+          <a:off x="8583726" y="9040925"/>
+          <a:ext cx="29595" cy="429646"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4181,16 +4188,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>312965</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>26533</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>560614</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>62252</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>462643</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>26534</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4205,8 +4212,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6368144" y="9320212"/>
-          <a:ext cx="928006" cy="35719"/>
+          <a:off x="8558893" y="9497105"/>
+          <a:ext cx="1730828" cy="27895"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4237,10 +4244,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>70075</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>115320</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>192539</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>88106</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1645443" cy="275717"/>
     <xdr:sp macro="" textlink="">
@@ -4256,7 +4263,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6125254" y="9408999"/>
+          <a:off x="8969146" y="9558677"/>
           <a:ext cx="1645443" cy="275717"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4295,16 +4302,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>669470</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>58510</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>676616</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>113279</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>247648</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>112938</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>254794</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>167707</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4319,7 +4326,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8765720" y="8998403"/>
+          <a:off x="11745684" y="8875938"/>
           <a:ext cx="7146" cy="408555"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4351,16 +4358,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>84364</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>82323</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>84365</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>113279</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>136751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>167707</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4375,7 +4382,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8180614" y="9022216"/>
+          <a:off x="11160578" y="8899751"/>
           <a:ext cx="1" cy="384742"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4407,10 +4414,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>451077</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>120424</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>29255</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>174852</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1526379" cy="275717"/>
     <xdr:sp macro="" textlink="">
@@ -4426,7 +4433,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7866970" y="9414103"/>
+          <a:off x="10846934" y="9291638"/>
           <a:ext cx="1526379" cy="275717"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4465,16 +4472,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>27214</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>340178</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>156481</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>311944</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>34017</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>679337</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>54428</xdr:rowOff>
+      <xdr:rowOff>-1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4489,7 +4496,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8123464" y="9327696"/>
+          <a:off x="11157857" y="9273267"/>
           <a:ext cx="652123" cy="20411"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4521,10 +4528,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>176893</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>163285</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>530678</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>54427</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3701143" cy="2493247"/>
     <xdr:sp macro="" textlink="">
@@ -4540,7 +4547,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10314214" y="7688035"/>
+          <a:off x="18151928" y="5279570"/>
           <a:ext cx="3701143" cy="2493247"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4584,6 +4591,395 @@
             <a:t>（新規登録以外）</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>435428</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>367393</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D4F232E-56BD-4F23-8C19-3C04DA0BBF8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7170964" y="4095751"/>
+          <a:ext cx="1973036" cy="625928"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>コーディネート</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>検索一覧</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>567419</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>75860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>424544</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85385</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="104" name="直線矢印コネクタ 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EC1CBC3-DB2E-4886-956F-0E911B932121}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6622598" y="4416539"/>
+          <a:ext cx="537482" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>595992</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>29936</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>39461</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>136412</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3759908A-6E18-4E55-BB34-3BB537B42626}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7331528" y="8439150"/>
+          <a:ext cx="1484540" cy="637155"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>アイテム</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>検索結果</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>39461</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>557893</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>119404</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="112" name="直線矢印コネクタ 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F05F9C82-FDCC-4E57-8098-91F4FB0353CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8816068" y="8694964"/>
+          <a:ext cx="1198789" cy="10547"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>367392</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1782536" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB25A247-664C-28FA-B1AE-94911765E8E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6422571" y="3782786"/>
+          <a:ext cx="1782536" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>検索ボタン　押下時</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>138793</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1782536" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="テキスト ボックス 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFAFAD93-475A-4E37-9F64-A59086EDF566}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6398078" y="8017329"/>
+          <a:ext cx="1782536" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>検索ボタン　押下時</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5262,9 +5658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5331,7 +5725,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B10:C18"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/doc/02_画面遷移図_ドキドキワクワク（仮）.xlsx
+++ b/doc/02_画面遷移図_ドキドキワクワク（仮）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOJO6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F93800-3F95-45E3-90A3-03BFCE9902E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B40C23-4260-4928-B71A-0C84A6B283F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4132,16 +4132,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>487476</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>120083</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101032</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>517071</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>60210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>149678</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>136070</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4156,7 +4156,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8583726" y="9040925"/>
+          <a:off x="6175262" y="9000103"/>
           <a:ext cx="29595" cy="429646"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4188,16 +4188,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>462643</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>26534</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>176892</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
+      <xdr:rowOff>26534</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4211,9 +4211,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="8558893" y="9497105"/>
-          <a:ext cx="1730828" cy="27895"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6232071" y="9456964"/>
+          <a:ext cx="4057650" cy="40141"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4244,10 +4244,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>192539</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219753</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>88106</xdr:rowOff>
+      <xdr:rowOff>115321</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1645443" cy="275717"/>
     <xdr:sp macro="" textlink="">
@@ -4263,7 +4263,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8969146" y="9558677"/>
+          <a:off x="7635646" y="9585892"/>
           <a:ext cx="1645443" cy="275717"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4676,10 +4676,28 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>検索一覧</a:t>
+            <a:t>検索</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400">
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>結果</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
             <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -5658,7 +5676,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
